--- a/responses.xlsx
+++ b/responses.xlsx
@@ -449,18 +449,20 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Visual Storytelling: How it Engages and Influences Audiences
-Visual representation of stories has been an age-old practice to convey ideas and thoughts to an audience. A picture is, after all, worth a thousand words, and can be carried forward through generations. However, with the advent of technology and social media, visual storytelling has become the most popular way of promoting brands, ideas, and information. Considering this, it's important to understand how visual storytelling can engage and influence an audience.
-Visual storytelling is the use of images, videos, graphics, and animations to portray a story that captures the audience's attention through emotion and narrative. A good visual story communicates a message, evokes emotions and is memorable. It’s a powerful way to connect with people and get them to care about an idea, product, or brand. When it’s done effectively, visual storytelling can have a profound impact on people, shaping their opinions, beliefs and even their behaviors. 
-Visual storytelling is crafted to stimulate the imagination, generate empathy, and leave a lasting impression. This is why it’s so effective in engaging and influencing an audience. One of the reasons why it is effective is because it is able to capture attention and convey emotions more effectively than written or verbal communication. It takes less time for an audience to comprehend the message when images are used, which means that they can act upon the message quicker. In addition, visuals have the power to evoke emotions more effectively than words, enabling the audience to experience empathy and connect with the message more effectively.
-Visual storytelling is used extensively in advertising, public relations, and communication. It can involve animated infographics, character-driven narratives, branded content, or even user-generated content. Instead of relying on pure information to sell an idea or product, advertisers use visual storytelling to evoke emotions and create a connection with consumers. The narrative contains a subtle sales pitch that encourages the audience member to feel as if they need the product or idea in their lives. 
-Visual storytelling has also been adopted in education, journalism, and advocacy. In education, visual storytelling is used to communicate complex topics or ideas to the students in an interactive and engaging way. Likewise, journalism has been transformed by visual storytelling. Today, journalistic content contains a complementary display of images and videos. This use of visual storytelling in journalism provides context, explanation, and emotional resonance to the story. Finally, advocacy organizations use visual storytelling to convey a message in a way that resonates with people beyond just data and statistics. By using images and animations that capture people's imaginations, the stoies are more effective at driving positive social change.
-In conclusion, visual storytelling has become a crucial part of human communication. It provides information, stimulates emotions, and promotes engagement. Audiences today are attracted to visual stories and pay more attention to them than written or verbal communication. The power of visual storytelling lies in its ability to convey complex ideas and evoke emotions in a way that is easily digestible for audiences. The use of visual storytelling will continue to grow, and more businesses, organizations, and individuals will continue to use this form of communication to capture their audience's attention and influence their behaviors. It is important for individuals to learn the techniques and strategies involved in crafting an effective visual story so that they may be able to create impactful narratives and leave a lasting impression.</t>
+As a society, we often view sensitivity as a weakness. We are taught to be tough, to not let our emotions get the best of us, and to always keep a stiff upper lip. However, my therapist has challenged this notion and has instead encouraged me to embrace my sensitivity as a superpower.
+At first, I was skeptical. Being sensitive had always been a source of pain for me. I was easily hurt by others' words and actions, and I often felt overwhelmed by my own emotions. But as I began to explore this idea further, I realized that my sensitivity was indeed a superpower - one that allowed me to connect with others on a deeper level and to empathize with their struggles.
+One of the key benefits of being sensitive is the ability to pick up on subtle cues and emotions in others. This can be incredibly valuable in relationships, both personal and professional. When we are attuned to the emotions of those around us, we can respond in a way that is more compassionate and understanding. This can lead to stronger connections and more meaningful interactions.
+In addition, sensitivity can also be a superpower in creative pursuits. Many artists, writers, and musicians are highly sensitive individuals who are able to tap into their emotions and translate them into their work. This can result in art that is deeply moving and resonant with others.
+Of course, being sensitive does come with its challenges. It can be difficult to navigate a world that often values toughness over vulnerability. It can also be overwhelming to feel so deeply, especially when others don't seem to understand or appreciate our sensitivity. However, my therapist has helped me to see that these challenges are also opportunities for growth and self-discovery.
+One of the most important lessons I have learned is the importance of self-care. As a sensitive person, it is crucial to take time for ourselves and to prioritize our own emotional well-being. This might mean setting boundaries with others, practicing mindfulness and meditation, or engaging in activities that bring us joy and comfort.
+Another key lesson is the power of vulnerability. While it can be scary to open ourselves up to others, it is also incredibly liberating. When we allow ourselves to be vulnerable, we create space for deeper connections and more authentic relationships. We also give ourselves permission to feel our emotions fully, without judgment or shame.
+Ultimately, my therapist's message has been one of self-acceptance and self-love. By embracing our sensitivity as a superpower, we can tap into our unique strengths and gifts. We can also learn to appreciate ourselves for who we are, rather than trying to fit into society's narrow definitions of what is "normal" or "acceptable."
+In conclusion, being too sensitive is not a weakness - it is a superpower. By embracing our sensitivity, we can connect more deeply with others, create meaningful art, and live more authentic, fulfilling lives. Yes, there will be challenges along the way, but with the right mindset and support, we can learn to thrive as sensitive individuals.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Visual Story Telling</t>
+          <t>My Therapist Says Being Too Sensitive Is a Superpower</t>
         </is>
       </c>
     </row>
@@ -468,19 +470,24 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-As a successful writer, I am often asked about the secrets of my success. Although success means different things to different people, for me, it has been a long journey of perseverance, dedication, and hard work.
-One of the most important lessons I have learned as a writer is that you must love what you do. Writing is not meant for the faint-hearted or those who lack passion. I discovered my love for writing at a young age, but it was not until my college years that I decided to pursue it as a career. I was constantly told by my professors and peers that it was impossible to make a living as a writer. However, I refused to let their negativity prevent me from following my passion.
-The second lesson I learned was the importance of reading. Reading has been a fundamental part of my life since I was a child. I would spend hours lost in books, and as I grew older, my love for reading continued to grow. It was through reading that I learned how to structure stories, write compelling characters, and craft engaging dialogue. If you want to become a successful writer, then you must become an avid reader.
-Writing is not just a skill, it is also an art form. This is the third lesson I learned. Like any artist, a writer must be willing to experiment, take risks, and try new things. It is easy to fall into the trap of writing the same thing over and over again, but this will not make you a successful writer. You must be willing to challenge yourself and push the boundaries of what you thought was possible. This is how you grow as a writer and how you keep your readers engaged.
-While passion, reading, and experimentation are essential to success, there are also practical things that can be done to help you along the way. One of these things is finding a writing routine that works for you. This is the fourth lesson I learned. For me, I find that writing in the morning when my mind is fresh is the most effective. I also set a daily word count goal and try to stick to it. Having a routine helps me stay focused and motivated.
-The fifth lesson I learned is that writing is not a solitary activity. While it may seem like a lonely job, it is crucial to connect with other writers and industry professionals. Joining writing groups and attending conferences and events is a great way to meet like-minded people, get feedback on your work, and learn about the industry. It was through networking that I was able to land my first book deal, and it has been instrumental in my continued success.
-Finally, I learned the importance of patience. Success as a writer does not happen overnight. It takes years of hard work and dedication to reach your goals. There will be rejections, negative reviews, and setbacks along the way, but you must keep going. If you truly love writing and are committed to your craft, then success will come.
-In conclusion, the confessions of a successful writer will always include hard work, dedication, and passion. It takes a lot of grit to excel in this industry, but with persistence and a love for writing, anything is possible. The lessons I have learned along the way have helped me to become the writer that I am today, and I am grateful for every challenge and triumph that has come my way. If you are an aspiring writer, my advice to you is to never give up, keep reading, and stay true to yourself. Your success as a writer is within reach.</t>
+As a literature student, I have always been fascinated by the works of William Shakespeare. From the tragedy of Romeo and Juliet to the comedy of A Midsummer Night's Dream, his plays have captured the hearts and minds of audiences for centuries. So, when I was given the opportunity to have a phone call with the late playwright, I jumped at the chance.
+After dialing the number I was provided, I nervously waited for someone to answer. Suddenly, a voice on the other end of the line spoke up, "Hello, this is William Shakespeare. How may I assist you?"
+I was taken aback by the fact that I was speaking to a man who had been dead for over 400 years, but I quickly regained my composure and began my questions.
+"Mr. Shakespeare, your plays are still being performed and studied today. What do you think makes them so timeless?"
+"Well, my dear, I believe that my plays speak to the human condition. They explore themes of love, betrayal, power, and morality that are still relevant today. Additionally, the characters in my plays are complex and multidimensional, allowing audiences to relate to them on a personal level."
+I couldn't agree more with his assessment. Shakespeare's plays have stood the test of time because they are not just entertaining, but also thought-provoking and emotionally resonant. The characters he created are not one-dimensional caricatures, but rather fully realized individuals with their own desires, fears, and motivations.
+"Your plays are known for their beautiful language and poetic imagery. How did you develop your writing style?"
+"I was inspired by the works of other writers, both contemporary and classical. I also drew from my own experiences and observations of the world around me. But ultimately, it was my love of language and my desire to create something beautiful that drove me to write the way I did."
+This response was not surprising to me, as Shakespeare's writing style is often praised for its elegance and lyricism. His use of metaphor and wordplay is unparalleled, and his ability to convey complex emotions through language is a testament to his skill as a writer.
+"Your plays have been adapted into countless films and television shows. What do you think of these adaptations?"
+"I am pleased that my work continues to be appreciated and adapted for new audiences. However, I believe that the true power of my plays lies in their performance on stage. Theater allows for a deeper connection between the actors and the audience, and it allows for a more immersive experience."
+This response was interesting because it showed that Shakespeare valued the communal experience of theater over the individual experience of watching a film or television show. While adaptations can bring his work to new audiences, they may not fully capture the essence of what makes his plays so powerful.
+As our conversation came to a close, I couldn't help but feel grateful for the opportunity to speak with one of the greatest writers in history. William Shakespeare's plays have had a profound impact on the world of literature and continue to inspire writers and audiences alike. Speaking with him reminded me of the importance of language, storytelling, and the power of the human imagination.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confessions of a successful writer</t>
+          <t>Phone Calls With Dead Authors: William Shakespeare</t>
         </is>
       </c>
     </row>
@@ -488,18 +495,20 @@
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Which Payment Methods Should You Accept?
-The rapid advancement of technology is shaping not only the business world but also the payment options that are available in the market today. With the rise of e-commerce and the increasing demand for online transactions, businesses have to consider the payment methods that they will offer to their customers. Choosing the right payment methods is vital to ensure the smooth running of your business, satisfy customer expectations, and remain competitive in the market. In this essay, we will explore the popular payment methods that businesses have to choose from and the factors that influence their decisions.
-Credit and debit cards are the most common payment methods used in today's business world. They offer convenience and security to customers and are widely accepted by businesses globally. Accepting credit and debit cards requires a payment gateway that processes transactions online, and a merchant account from a bank. The payment gateway acts as a middleman between the customer's bank and the business bank, ensuring the transaction's safety and security. Merchant accounts charge a fee based on a percentage of the transaction, and this is a significant factor that businesses have to consider regarding their profitability.
-Mobile payments are increasingly becoming popular, and they offer the convenience of making payments through mobile devices. Apple Pay, Samsung Pay, and Google Pay are examples of mobile payments that are gaining popularity as they offer convenience and security. Customers link their debit or credit cards to their mobile devices, and the payment is made by tapping the device to a payment terminal. In addition, mobile payments can integrate other payment options like loyalty points and coupons, offering customers more value. However, the challenge with mobile payments is that not all customers have smartphones or possess the latest technologies required.
-E-wallets like PayPal and Skrill offer an alternative payment method that allows customers to pay using their digital wallets. Customers can either link their bank account or debit card to their e-wallet and make payments securely online. E-wallets offer a lower transaction fee compared to credit and debit cards, and they are a preferred option for users who do not want to share their financial information online. Businesses that operate internationally may find e-wallets a convenient payment method as they allow customers to make payments globally.
-Cryptocurrencies like Bitcoin and Ethereum offer an alternative payment method that is gaining traction worldwide. Cryptocurrencies are decentralized and do not rely on traditional financial institutions like banks to operate. They offer fast and low-cost transactions, and the value of cryptocurrencies is secure from inflation, making them a preferred option for businesses that operate globally. However, the challenge with cryptocurrencies is that their value is volatile, and not all customers have knowledge or trust in cryptocurrencies.  
-In conclusion, businesses have to consider the payment methods that they will offer to their customers regarding their customers' preferences, the cost of transactions, and profitability. Credit and debit cards, mobile payments, e-wallets, and cryptocurrencies are some of the payment methods that businesses can choose from. While some payment methods offer convenience and security, others offer lower transaction fees or global accessibility. Therefore, businesses have to evaluate the payment options that align with their customers' needs, their business model, and their financial goals. Adopting multiple payment methods can offer customers flexibility and convenience while enhancing businesses' profitability and competitiveness in the market.</t>
+The Resolution That Standardized Time
+Time is a concept that has always been a part of human life. From the earliest of civilizations, humans have relied on the sun and the moon to tell time. However, as society evolved and became more complex, the need for a more precise and standardized method of measuring time became apparent. This need led to the resolution that standardized time, which has had a significant impact on the world we live in today.
+Before the resolution that standardized time, each town and city had its own local time. This meant that when it was noon in one town, it could be 12:05 in the next town over. This made it difficult for people to coordinate events and schedules across different locations. For example, train schedules were often unreliable because they had to adjust their schedules based on the local time of each town they passed through.
+To address this issue, the resolution that standardized time was proposed. The idea was to divide the world into 24 time zones, each one hour apart from the next. This meant that when it was noon in New York, it would also be noon in Chicago, even though they were in different time zones. This made it much easier for people to coordinate events and schedules across different locations.
+The resolution that standardized time was first proposed at the International Meridian Conference in Washington D.C. in 1884. The conference was attended by representatives from 25 countries, and the goal was to establish a prime meridian, or a line of longitude that would be used as the reference point for all time zones. The prime meridian that was selected was the one that passed through the Royal Observatory in Greenwich, England.
+Once the prime meridian was established, the world was divided into 24 time zones, with each one-hour apart from the next. The time zones were numbered from 1 to 24, starting at the prime meridian and moving westward. This meant that the time in New York, which was in time zone 5, was five hours behind the time in Greenwich.
+The resolution that standardized time had a significant impact on the world. It made it much easier for people to coordinate events and schedules across different locations. It also made it easier for transportation systems, such as trains and airplanes, to operate more efficiently. Before the resolution, train schedules were often unreliable because they had to adjust their schedules based on the local time of each town they passed through. With standardized time, train schedules could be more accurately planned, and trains could run more efficiently.
+Standardized time also had a significant impact on international communication. Before the resolution, it was difficult for people in different countries to communicate with each other because they had to adjust their schedules based on the local time of each location. With standardized time, people could communicate more easily because they knew exactly what time it was in different locations around the world.
+In conclusion, the resolution that standardized time was a significant achievement in human history. It made it much easier for people to coordinate events and schedules across different locations, and it made transportation systems and international communication more efficient. Today, we take standardized time for granted, but it was a major step forward in the development of modern society.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Which Payment Methods Should You Accept?</t>
+          <t>The Resolution That Standardized Time</t>
         </is>
       </c>
     </row>
@@ -507,18 +516,21 @@
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-In recent times, the world has been making massive strides in advancing artificial intelligence (AI) and machine learning (ML). Deep learning (DL) is a subfield of AI that has been instrumental in this development, with many applications in computer vision, natural language processing, robotics, and health informatics. A significant challenge in DL is the increasing computational complexity required as the model's complexity increases. Newer chip designs have been developed to improve compute efficiencies up to 128 bits, but these designs come with increased power and cost complexity. This is where 4-bit deep learning comes in. In this essay, we will discuss the significance of 4-bit deep learning, its underlying principles, and potential applications.
-4-bit deep learning is a recent innovation that deals with the optimization of DL models to run on hardware supporting only 4-bit data representations. This optimization is prominent in applications requiring low power and cost, such as embedded systems and mobile devices. Traditional DL models typically use 32-bit or 64-bit data formats, which are not feasible on these devices due to resource limitations.
-The underlying principle of 4-bit deep learning is the quantization of model parameters, which means converting the 32 or 64-bit floating-point weights to lower bit-width integers. This results in a reduction in memory usage, lower bandwidth requirements, and increased computational speed, as fewer bits are processed. However, this quantization can cause a deterioration in the model's accuracy, as the representation loses its fidelity. Therefore, additional techniques such as rescaling, mini-batch normalization, and knowledge distillation are necessary to overcome this loss of accuracy.
-The main advantage of 4-bit deep learning is its low power and cost consumption. By reducing the memory usage and computational resources, the power required to run these models is significantly reduced. This makes them compatible with low-end processors such as microcontrollers, embedded systems, and even some mobile devices. Furthermore, the reduced computational complexity decreases the cost of implementing these models in these devices, making them more accessible to consumers.
-One potential application of 4-bit deep learning is in the field of image recognition, where it has been demonstrated to be effective in identifying objects such as handwritten digits, faces, and street signs. Another potential application is in natural language processing, where it can be used in sentiment analysis, text classification, and language modelling. In health informatics, 4-bit deep learning can be used for predictive modelling, pharmaceutical analytics, and personalized medicine.
-Despite its numerous benefits, 4-bit deep learning has some limitations. The most significant limitation is the reduction of model accuracy, which is always a concern when adopting any quantization techniques. This is especially problematic when dealing with low-resolution images, as 4-bit quantization may lead to a considerable distortion of the image features. Another limitation is the limited compute capabilities of 4-bit deep learning, making it unsuitable for applications that require high levels of parallelism or that have very large parameter sizes.
-In conclusion, 4-bit deep learning is a growing field that offers a low-cost optimization for deep learning models. The quantitative reduction of the model parameters makes it suitable for embedded systems and low-powered processors, which was previously unachievable with traditional deep learning techniques. The reduction of power and cost makes it a commercially viable solution for many industries, including healthcare, finance, and retail. However, while 4-bit deep learning has numerous benefits, its limitations must be understood and addressed to avoid significant reductions in accuracy. With continued research and development, 4-bit deep learning is poised to transform the world of AI by creating accessible, low-cost machine learning solutions.</t>
+Bread &amp; Water: The Basic Necessities of Life
+When we think of the basic necessities of life, we often think of food, water, and shelter. However, when we break it down even further, we realize that there are two foundational elements that sustain life: bread and water.
+Bread has been a staple food for thousands of years. It is a source of carbohydrates, which provide the body with energy. Bread also contains other essential nutrients such as fiber, protein, and vitamins. In many cultures, bread is a symbol of life, sustenance, and community. It is often shared during celebrations and religious ceremonies. In fact, the word “companion” comes from the Latin word “panis,” which means bread. This emphasizes the importance of bread in our lives.
+Water is another essential element that sustains life. The human body is made up of 60% water, and it is necessary for many bodily functions such as digestion, circulation, and temperature regulation. Water is also essential for the growth of crops and the production of food. Without water, life as we know it would not exist.
+Despite the importance of bread and water, many people in the world still lack access to these basic necessities. According to the World Health Organization, 2.2 billion people lack access to safe drinking water, and 821 million people suffer from chronic undernourishment. This highlights the global issue of food and water insecurity.
+In addition to the global issue of food and water insecurity, there are also societal issues related to bread and water. For example, in many cultures, bread and water are associated with poverty and lack of resources. This can lead to stigmatization and discrimination against those who rely on these basic necessities. Furthermore, the production and distribution of bread and water can also have negative environmental impacts, such as water pollution and deforestation.
+As college students, it is important for us to recognize the value of bread and water and to take action to address the issues related to food and water insecurity. One way we can do this is by supporting organizations that work to provide access to safe drinking water and nutritious food to those in need. We can also make conscious choices about the food and water we consume, such as choosing locally sourced and sustainably produced products.
+Another way we can address these issues is by advocating for policy change at the local and global level. This can include supporting policies that promote sustainable agriculture and water conservation, as well as policies that address food and water insecurity.
+Finally, as college students, we can also educate ourselves and others about the importance of bread and water and the issues related to food and water insecurity. By raising awareness and promoting understanding, we can work towards a more equitable and sustainable future for all.
+In conclusion, bread and water are the basic necessities of life. They sustain us physically, emotionally, and culturally. However, many people in the world still lack access to these basic necessities, and there are societal and environmental issues related to their production and distribution. As college students, we have a responsibility to recognize the value of bread and water and to take action to address the issues related to food and water insecurity. By doing so, we can work towards a more equitable and sustainable future for all.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4-Bit Deep Learning</t>
+          <t>Bread &amp; Water</t>
         </is>
       </c>
     </row>
@@ -526,20 +538,19 @@
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-3D modeling is a powerful tool used by many industries today including gaming, film, architecture, and product design. It enables users to bring virtual ideas to life and create immersive worlds for people to explore. If you are interested in 3D modeling, you may be wondering how long it will take to learn this skill. In this essay, I will discuss my experience of learning 3D modeling in 14 weeks as a college student.
-Before starting my journey to learn 3D modeling, I did some research to find the best learning resources available online. I discovered several free and paid courses on websites such as Udemy, Lynda, and Skillshare. Ultimately, I decided to use Autodesk Maya as my primary software for 3D modeling since it is widely used by professionals and offers a wide range of tools and plugins.
-The first week of my learning journey back in the Fall semester was spent on understanding the basics of the software. I downloaded the software and started exploring the interface and the tools available. I watched tutorials online to get a better sense of what each tool does and tried to replicate what was shown in the tutorials on my own. I also started to build 3D shapes using the software's basic geometry tools such as the cube, sphere, and cylinder.
-In the second week, I learned how to create more complex shapes such as a chair or a table using several basic shapes. I also learned about the concept of mesh topology and how it affects the final model. In this week I started using more advanced tools like the extrude and the bevel tool, which allowed me to create more intricate designs.
-In the following weeks, I continued to learn more advanced tools such as the sculpting and the boolean operations. I also gained skills in texturing models and learned how to utilize the UV mapping tool to add texture onto the finalized design. By the end of the fifth week, I had a basic understanding of how to create a 3D model that looked like something real-life.
-The sixth week marked the transition from basic to advanced. I learned about rigging, animation, and expressions tools. This step was where I started to enjoy learning the most. I could finally create my own characters with different expressions through the use of these tools. This was when I noticed how much I had learned over the past few weeks. I was able to animate a 3D character and make it move realistically.
-In the following weeks, I continued advancing in different areas of 3D modeling. I learned about advanced lighting and rendering techniques such as global illumination, and physical simulation concepts like cloth and rigid bodies. I also learned how to import my 3D models into the Unity engine and Unreal engine, which are widely used game engines.
-As the 14 weeks were coming to an end, I chose to work on a final project. I designed and created a game character with a proper rig, animation, and texture. I created a small environment for the character to walk around in, and added a few effects like liquid water and falling leaves. It was an enjoyable process, and even though it was not perfect, when I looked back, I realized how much I had learned.
-In conclusion, learning 3D modeling in 14 weeks was a challenging, but ultimately rewarding experience. Although it is not possible to become a master in 14 weeks, it provides an excellent foundation for more advanced learning later. I am certain that this experience will be beneficial to me in the future as I continue to learn more advanced 3D modeling software and techniques.</t>
+Tony Schwartz — The Most Influential Writer Of Our Time
+Tony Schwartz is a name that might not be familiar to everyone, but his work has undoubtedly touched the lives of millions of people around the world. He is a writer, journalist, and media consultant who has made a significant impact on the way we think about work, productivity, and personal development. In this essay, I will argue that Tony Schwartz is the most influential writer of our time by examining his background, his contributions to the field of personal development, and his lasting legacy.
+Tony Schwartz was born in New York City in 1951 and grew up in the Bronx. He attended the University of Michigan, where he studied English and psychology. After graduating, he became a journalist and worked for several newspapers and magazines, including Newsweek and New York Magazine. In 1984, he founded his own media consulting firm, The Energy Project, which helps companies improve employee productivity and well-being. It was through this work that Schwartz became known as a leading expert in the field of personal development.
+Schwartz's most significant contribution to the field of personal development is his concept of "energy management." He argues that we should think of our energy levels as a finite resource, like money in a bank account. We need to manage our energy wisely, just as we would manage our finances, in order to be productive and fulfilled. Schwartz's work has been influential in the corporate world, where companies are increasingly recognizing the importance of employee well-being and work-life balance.
+Schwartz is also known for his book, "The Power of Full Engagement," which he co-wrote with Jim Loehr. The book argues that the key to success is not time management but energy management. It has sold millions of copies and has been translated into more than 20 languages. The book's popularity is a testament to Schwartz's ability to communicate complex ideas in a way that is accessible and relatable.
+Another important aspect of Schwartz's work is his emphasis on the importance of rest and renewal. He argues that we need to take breaks and recharge our batteries in order to be productive and creative. This idea runs counter to the prevailing culture of overwork and burnout that is all too common in today's society. Schwartz's work has been influential in promoting a more balanced and sustainable approach to work and life.
+Schwartz's legacy can be seen in the many people who have been inspired by his work. His ideas have been embraced by corporate executives, entrepreneurs, and individuals seeking to improve their own lives. His work has also influenced other writers and thinkers in the field of personal development. For example, Tim Ferriss, the author of "The 4-Hour Work Week," has cited Schwartz as a major influence on his own work.
+In conclusion, Tony Schwartz is the most influential writer of our time because of his groundbreaking work in the field of personal development. His concept of energy management has transformed the way we think about productivity and well-being. His book, "The Power of Full Engagement," has sold millions of copies and has been translated into numerous languages. His emphasis on rest and renewal has challenged the prevailing culture of overwork and burnout. Schwartz's legacy can be seen in the many people who have been inspired by his work and in the lasting impact he has had on the field of personal development.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Learning 3D modeling in 14 weeks</t>
+          <t>Tony Schwartz — The Most Influential Writer Of Our Time</t>
         </is>
       </c>
     </row>
@@ -547,21 +558,18 @@
       <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-With the Democratic presidential primaries just around the corner, many have speculated that Joe Biden, the former Vice President of the United States, might have to shift his centrist stance to appeal to the more liberal wing of his party. However, I argue that this is unlikely to happen and that Biden will most likely continue to stay true to his moderate roots. Let me explain why.
-Firstly, Biden's political beliefs are not just ingrained in his policies, but also in his personal beliefs. Biden has always been on the moderate side of the Democratic spectrum and has never claimed to be a progressive candidate. A major tenet of his political ideology has been the ability to work across the aisle, making him an effective lawmaker during his time in the Senate.
-This ability to build bridges between the parties comes from Biden's experience working on significant pieces of legislation while in the Senate, such as the Violent Crime Control and Law Enforcement Act of 1994 and the Comprehensive Anti-Apartheid Act of 1986. Since then, Biden has retained his position as the center of the Democratic party, and this position defines him as a candidate.
-Secondly, Biden is aware of the challenges that come with moving to the left. As such, he knows that shifting his ideological stance towards the left will make him vulnerable to attacks from the other end of the spectrum. Republicans will quickly try to label him as a socialist and use this as a point to criticize all other Democratic candidates.
-Biden's campaign strategy should be focused on winning the election, not electing himself as the most liberal member of the party. Biden is best positioned to win the general election. Polls show that in a head-to-head race against Donald Trump, Biden fares significantly better than progressive candidates such as Bernie Sanders or Elizabeth Warren.
-Thirdly, Biden's policies do address some of the key issues that are important to the Democratic party. For example, the Affordable Care Act was his most significant accomplishment while serving as Vice President, and since then he has pushed for strengthening the healthcare system further.
-Biden also supports the $15 minimum wage, gun control, and fighting climate change. While these policies may not be as radical as those of other candidates, they are still progressive and indicate his willingness to push for change.
-Lastly, we need to remember that the primary only represents a small subset of the electorate. Most Americans will only start paying attention to the elections once the general campaign begins, and this is where Biden's positions will be beneficial.
-Biden's moderate stance will appeal to the large swath of swing voters who are moderate, independent, or even conservative Democrats. They are undoubtedly pivotal in deciding election outcomes, and moving too far to the left could alienate these voters and give President Trump the upper hand.
-In conclusion, Joe Biden will not move left as many people are speculating. Biden's experience as a pragmatic lawmaker and leader positions him as a candidate that can win the election, and his policies do address the Democratic Party's core tenets. His stance of being a moderate Democrat, able to work across the aisle, is something that voters will likely find appealing. Biden is best positioned to win the election, and that's the most crucial goal of any candidate.</t>
+Income taxation is a topic that has been debated for years, with many arguing that it is a civil liberties issue. However, it is important to consider whether or not this is actually the case. In this essay, I will argue that income taxation is not a civil liberties issue, but rather a necessary component of a functioning society.
+Firstly, it is important to understand what civil liberties are. Civil liberties are the basic rights and freedoms that are guaranteed to individuals by the Constitution. These include things like freedom of speech, religion, and assembly. While income taxation does involve the government taking a portion of an individual’s income, it does not impede on any of these basic rights and freedoms.
+Furthermore, income taxation is necessary for the functioning of a society. Taxes are used to fund public goods and services, such as roads, schools, and healthcare. Without taxes, these services would not be available to everyone, and society as a whole would suffer. In addition, taxes are used to fund social programs that provide a safety net for those in need, such as welfare and unemployment benefits. These programs help to reduce poverty and inequality, which is essential for a just and fair society.
+It is also important to consider the alternative to income taxation. If taxes were not collected, the government would have to rely on other sources of revenue, such as borrowing or printing money. This would have serious consequences for the economy, as it would lead to inflation and a devaluation of the currency. In addition, borrowing would lead to an increase in the national debt, which would have to be paid back with interest. This would create a burden for future generations, who would have to pay for the mistakes of the past.
+Another argument against income taxation is that it is unfair, as it takes a larger percentage of income from those who earn more. While this may seem unfair on the surface, it is important to consider the principle of progressive taxation. This principle states that those who are able to pay more should contribute more to society. This is because those who earn more have benefited more from the opportunities and resources provided by society, and therefore have a greater responsibility to give back. In addition, progressive taxation helps to reduce inequality, which is essential for a just and fair society.
+Finally, it is important to consider the role of the government in society. The government exists to serve the people, and income taxation is one way in which it does so. The government has a responsibility to provide public goods and services, and to ensure that everyone has access to the basic necessities of life. This cannot be done without taxes, and therefore income taxation is an essential component of a functioning society.
+In conclusion, while income taxation may seem like a civil liberties issue, it is important to consider the broader context. Income taxation is necessary for the functioning of a society, and is not a violation of any basic rights or freedoms. Without taxes, society would suffer, and the government would be unable to fulfill its responsibilities to the people. Therefore, while it is important to ensure that taxes are fair and just, it is not accurate to say that income taxation is a civil liberties issue.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No, Joe Biden will not move left.</t>
+          <t>Income taxation not a civil-liberties issue? Be serious</t>
         </is>
       </c>
     </row>
@@ -569,20 +577,19 @@
       <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Barre With Sarah: A Fun and Effective Way to Get Fit
-As a college student, it can be difficult to balance academics, extracurricular activities, and maintaining a healthy lifestyle. The demands of college may leave you feeling stressed, overwhelmed, and exhausted. However, incorporating fitness into your routine is one way to combat these feelings and improve your overall wellbeing. One fun and effective way to get fit is by attending a barre class with Sarah.
-Barre is a fitness trend that has grown in popularity in recent years. It is a low-impact workout that is inspired by ballet, Pilates, and yoga. The workout involves doing small, repetitive movements that target specific muscle groups, such as the thighs, glutes, and core. The movements are done using a ballet barre for support and may also incorporate light weights and resistance bands.
-Sarah is an experienced barre instructor who is passionate about helping women feel strong, confident, and empowered. She creates a welcoming and supportive environment in her classes that allows students to feel comfortable and motivated. Sarah's classes are challenging, yet fun, and cater to all fitness levels.
-Attending a barre class with Sarah offers numerous benefits. First and foremost, it is an effective workout that yields results. Barre workouts are known to improve posture, increase flexibility, and tone muscles. Moreover, they can also help boost your metabolism, reduce stress and anxiety, and improve your overall mood.
-Another advantage of attending a barre class with Sarah is the sense of community that you will feel. Working out alongside others who share the same goals and challenges can be motivating and inspiring. Sarah's classes will provide you with the opportunity to meet new people, make friends, and build a support system.
-Furthermore, attending a barre class with Sarah will help you improve your self-confidence. The workout targets areas of the body that many women feel self-conscious about, such as the thighs, arms, and stomach. However, as you continue to attend classes, you will start to notice changes in your body and feel more confident in your own skin.
-One of the best things about attending a barre class with Sarah is the fun and upbeat atmosphere that she creates. The music is always energizing, and the movements are done in a rhythmic and fluid manner. This makes the workout feel more like a dance party than a fitness class. You will leave feeling energized, refreshed, and accomplished.
-In conclusion, incorporating fitness into your routine is an essential component of maintaining a healthy lifestyle. Attending a barre class with Sarah is one way to achieve this goal. It is an effective and fun workout that offers numerous benefits, including improved posture, increased flexibility, and toned muscles. Moreover, attending Sarah's classes will help you build a sense of community, improve your self-confidence, and leave you feeling energized and uplifted. As a college student, it is important to find ways to stay healthy and fit despite the demands of college life. Attending a barre class with Sarah is a perfect way to do just that.</t>
+Threnody for the Educated
+Education has always been considered as one of the most significant aspects of a person's life. It is often said that education is the key to success, and it is true in every sense. Education not only provides knowledge but also helps in shaping the character of an individual. However, in recent times, the value of education seems to have lost its sheen. People are more interested in earning money than gaining knowledge. This shift in attitude towards education has resulted in a threnody for the educated.
+The threnody for the educated is a lament for the loss of value of education in society. It is a sorrowful song for those who have spent years studying and acquiring knowledge, only to find themselves struggling to find a job or not being paid enough for their skills. The threnody is for those who have dedicated their lives to teaching and educating others, only to be undervalued and underpaid.
+The threnody for the educated is not just a lament for the present but also a warning for the future. The current generation's lack of interest in education will have severe consequences for the future generations. If education is not valued, then the society will be filled with people who lack knowledge and skills, making it difficult to progress and innovate.
+The threnody for the educated is not just about the monetary value of education. It is also about the lack of respect and recognition given to those who have pursued education. The society has started to view education as a means to an end, rather than an end in itself. People are more interested in the degree they receive than the knowledge they gain. This attitude has resulted in the loss of the true essence of education, which is to gain knowledge and wisdom.
+The threnody for the educated is not just about the loss of value of education but also about the loss of intellectual curiosity. People have stopped asking questions and seeking knowledge. They are content with the information given to them, without questioning its validity or seeking to learn more. This lack of intellectual curiosity is a dangerous trend that will have severe consequences in the future.
+The threnody for the educated is a call to action. It is a reminder that education is not just for personal gain but for the betterment of society. We need to value education and the people who pursue it. We need to recognize that education is not just about getting a degree but about gaining knowledge and wisdom. We need to encourage intellectual curiosity and the pursuit of knowledge.
+In conclusion, the threnody for the educated is a lament for the loss of value of education in society. It is a call to action to recognize the importance of education and the people who pursue it. We need to value education not just for personal gain but for the betterment of society. We need to encourage intellectual curiosity and the pursuit of knowledge. The threnody for the educated is not just about the present but also about the future. We need to act now to ensure that the future generation values education and the pursuit of knowledge.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Barre With Sarah</t>
+          <t>Threnody for the Educated</t>
         </is>
       </c>
     </row>
@@ -590,21 +597,24 @@
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Over the past few years, Bitcoin prices have fluctuated wildly, making it difficult to predict its future worth. However, during my undergraduate studies in computer science, I became fascinated by the possibilities of machine learning and its potential use in predicting the stock market.
-As Bitcoin piqued my interest, I decided to apply my knowledge of machine learning to the world of cryptocurrency, specifically focusing on predicting Bitcoin prices using a variety of algorithms.
-First, I gathered data on Bitcoin prices from various sources, including historical prices, market news, and social media sentiment. I then implemented several machine learning models, including linear regression, decision trees, and neural networks, to predict future Bitcoin prices.
-My tests showed that the neural network model performed the best, with an accuracy rate of approximately 80%, which was very promising. I then used this model to create a web application that allowed users to input the date and receive a prediction for Bitcoin's future price.
-While my results were promising, I knew that there were limitations to my model that needed to be addressed. For example, the reliability of the data I collected and the potential for unforeseen market changes needed to be taken into consideration. Additionally, the accuracy of my model needed to be thoroughly tested over a longer period of time in order to determine its true effectiveness.
-As I continued to improve my model, I also began to reflect on the implications of using machine learning to predict stock prices. While accurate predictions could be beneficial to investors, they could also lead to unethical practices such as insider trading and algorithmic manipulation.
-Thus, I believe that it is important to approach the use of machine learning in predicting Bitcoin prices ethically and with caution. It is important to acknowledge the limitations of such predictions and to tread carefully in navigating the landscape of cryptocurrency investments.
-As a computer science student, I'm excited to explore the opportunities that machine learning can offer in the field of finance. However, I also realize the ethical responsibility that comes with such technology.
-Overall, my experience using machine learning to predict Bitcoin prices has been both rewarding and challenging. While it's exciting to see the potential of such algorithms, it's also important to approach their use with care and critical analysis.
-As I continue to learn and grow in this field, I hope to use my knowledge to develop even more accurate and ethical applications of machine learning in finance and beyond.</t>
+The Skydiver Saved by Fire Ants After Plunging 14,500 Feet
+The story of the skydiver saved by fire ants after plunging 14,500 feet is a remarkable tale of survival and the resilience of nature. The incident, which occurred in Florida in 1997, involved a skydiver named Michael Holmes who had a near-fatal accident while performing a routine jump.
+Holmes, who was an experienced skydiver with over 1,500 jumps under his belt, was performing a jump with his team when he collided with another skydiver mid-air. The impact caused Holmes to lose consciousness, and he plummeted towards the ground at a speed of over 100 miles per hour.
+Miraculously, Holmes survived the fall, but he was badly injured and unable to move. He lay on the ground for several hours, waiting for rescue crews to arrive. However, it was not the rescue crews that saved his life, but a colony of fire ants that found him lying on the ground.
+The fire ants, which are known for their aggressive behavior and painful stings, began to swarm over Holmes' body, biting and stinging him. At first, he was afraid that the ants would kill him, but then he realized that they were actually helping him.
+The ants' bites and stings caused Holmes' body to release adrenaline, which helped to counteract the effects of his injuries. The venom from the ants also helped to reduce the swelling in his body, which was causing him immense pain.
+After several hours, rescue crews finally arrived and were able to transport Holmes to a nearby hospital. Despite his injuries, he made a full recovery and was able to resume his skydiving career.
+The story of the skydiver saved by fire ants is a fascinating example of the power of nature and the resilience of the human body. It also highlights the importance of being prepared for emergencies and having the knowledge and skills to survive in extreme situations.
+As a college student, this story serves as a reminder that life is unpredictable, and we must be prepared for any situation that may arise. Whether it is a natural disaster, a medical emergency, or a personal crisis, we must have the knowledge and skills to survive and thrive in difficult circumstances.
+One way to prepare for emergencies is to take courses in first aid, CPR, and emergency response. These courses teach valuable skills that can save lives and help us to be better prepared for emergencies.
+Another way to prepare for emergencies is to have a well-stocked emergency kit at home and in our cars. This kit should include items such as food, water, first aid supplies, and emergency blankets, among others.
+Finally, it is important to have a plan in place for emergencies. This plan should include a designated meeting place, emergency contacts, and evacuation routes, among other things.
+In conclusion, the story of the skydiver saved by fire ants is a remarkable tale of survival and the power of nature. It serves as a reminder that life is unpredictable, and we must be prepared for any situation that may arise. By taking courses in first aid, CPR, and emergency response, having a well-stocked emergency kit, and having a plan in place for emergencies, we can be better prepared to face any challenge that comes our way.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How I used ML to predict Bitcoin Prices</t>
+          <t>The Skydiver Saved by Fire Ants After Plunging 14,500 Feet</t>
         </is>
       </c>
     </row>
@@ -612,21 +622,21 @@
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hardware prototyping is an essential process in the development of new electronic products. The primary purpose of hardware prototyping is to test and evaluate the feasibility of new product ideas before investing in mass production. Building a physical prototype of a product allows designers and engineers to see the product in action and identify potential problems before the product is mass-produced.
-Hardware prototyping can be defined as the creation of a physical model of an electronic product that is designed to meet a specific set of requirements. The prototype is created using various electronic components such as microcontrollers, sensors, actuators, and other electronic devices. The prototype is then tested to ensure that it meets the specifications and requirements set by the designers.
-The process of hardware prototyping involves several stages, including concept design, designing the prototype, assembly, and testing. Concept design is the initial stage where ideas and concepts for the product are developed. The design must meet the needs of the intended user and be cost-effective. Once the concept is finalized, the next step is to design the prototype.
-The prototype is designed using specialized software that allows engineers to design and test the product's performance parameters. The design must be precise and include all the necessary electronic components. Once the design is completed, the next step is to assemble the prototype.
-The assembly stage involves putting all the electronic components together to create the physical prototype. The process may involve soldering, wiring, and attaching electronic components to the circuit board. The assembly must be done precisely to ensure that the prototype functions correctly.
-Once the prototype is assembled, the next step is to test it. Testing is an essential part of hardware prototyping as it helps identify any design flaws that need to be addressed before mass production. The prototype is tested under various conditions to ensure that it meets the specifications and requirements set by the designers.
-Hardware prototyping has several benefits. Firstly, it allows designers and engineers to test and evaluate their product ideas before investing in mass production. This helps identify any design flaws, ensuring that the final product meets the requirements of the user. Secondly, it helps to reduce the cost and time required to develop a new product by identifying design flaws early on in the process. This can save businesses a significant amount of money and time, allowing them to bring products to market faster.
-Hardware prototyping can also help businesses to develop more innovative products. By seeing a physical prototype in action, designers and engineers can identify ways to improve the product's performance, functionality, and design. This can lead to the creation of new and innovative products that meet the changing needs of consumers.
-There are several challenges associated with hardware prototyping. Firstly, it can be costly to develop a physical prototype, especially for complex products that require various electronic components. Secondly, the complexity of the design can make assembly and testing time-consuming and challenging. Despite these challenges, hardware prototyping remains an essential process in the development of new electronic products.
-In conclusion, hardware prototyping is an essential process in the development of new electronic products. The primary purpose of hardware prototyping is to test and evaluate the feasibility of new product ideas before investing in mass production. Hardware prototyping allows designers and engineers to identify design flaws and improve the product's performance, functionality, and design. It also helps businesses reduce the time and cost of product development while creating more innovative products that meet the needs of consumers. Despite the challenges associated with hardware prototyping, it remains an essential process in the creation of new electronic products.</t>
+As an introvert, writing has always been my preferred mode of communication. It allows me to express my thoughts and ideas without the pressure of face-to-face interactions. However, I have come to realize that writing alone is not enough. In order to be a successful writer, I must also learn how to attract readers. This can be a daunting task for introverts like myself, but it is not impossible.
+The first step to attracting readers is to find your niche. What topics do you enjoy writing about? What are you passionate about? Once you have identified your niche, it is important to research your target audience. Who are they? What are their interests? What are their needs? This information will help you tailor your writing to their preferences and increase the likelihood of attracting readers.
+Another important aspect of attracting readers is to establish a strong online presence. This can be done through social media platforms such as Twitter, Facebook, and Instagram. By sharing your writing and engaging with your audience, you can build a loyal following. It is important to be consistent with your online presence and to interact with your followers regularly.
+In addition to social media, having a blog or website can also help attract readers. This provides a platform for your writing and allows readers to easily access your content. It is important to have a visually appealing and user-friendly website that is easy to navigate. You can also use search engine optimization (SEO) techniques to improve your website’s visibility on search engines.
+Networking is also crucial for attracting readers. This can be done by attending writing conferences, joining writing groups, and collaborating with other writers. Networking allows you to connect with like-minded individuals who can help promote your writing and provide valuable feedback.
+As an introvert, networking can be challenging. However, it is important to step out of your comfort zone and make connections with others in the writing community. This can lead to new opportunities and help you reach a wider audience.
+One of the most effective ways to attract readers is to write quality content. This means taking the time to research your topic, editing your work, and ensuring that it is well-written and engaging. Quality content will keep readers coming back for more and can lead to word-of-mouth promotion.
+It is also important to be authentic in your writing. Readers can sense when a writer is not being genuine, and this can turn them off. By sharing your personal experiences and opinions, you can connect with your audience on a deeper level.
+Finally, it is important to be patient. Building a following takes time and effort. It is important to stay consistent with your writing and online presence, even if you are not seeing immediate results. With persistence and dedication, you can attract a loyal following and establish yourself as a successful writer.
+In conclusion, writing as an introvert can be challenging, but it is not impossible to attract readers. By finding your niche, establishing a strong online presence, networking, writing quality content, being authentic, and being patient, you can build a loyal following and establish yourself as a successful writer. As an introvert, I have learned that writing is not just about expressing myself, but also about connecting with others and sharing my ideas with the world.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What Is The Purpose Of Hardware Prototyping?</t>
+          <t>Writing (and Attracting Readers) as an Introvert</t>
         </is>
       </c>
     </row>
@@ -634,18 +644,22 @@
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Cold War E01: Why did the Cold War start?
-The Cold War was a political catastrophe that gripped the world for almost five decades, with the bitter rivalry between the United States and the Soviet Union, leading to military buildups, proxy wars, and global instability. The origins of the Cold War are complex, and historians are divided on what precisely sparked the tensions between the two superpowers. However, a few critical events leading up to and during World War II fundamentally altered the course of international relations, leading to the beginnings of the Cold War.
-The rise of communism in the Soviet Union was one of the primary drivers of the Cold War. The Bolsheviks seized power in the October Revolution of 1917, which triggered a seismic shift in international relations. The United States and other western countries feared that the Soviet Union would export its communist ideology to other countries and overthrow the capitalist systems that they had in place. America had a long-standing policy of containing the spread of communism, and they were ready to take measures to prevent it from spreading.
-During World War II, the United States and the Soviet Union were uneasy allies, and despite fighting Japanese and German armies together, they never developed mutual trust or friendship. After the war, the two powers found themselves at odds with each other. The Soviet Union wanted to spread the communist ideology to other parts of Europe, which was occupied by the Red Army. The United States, on the other hand, had pledged to support democratic governments throughout the world and was working on the Marshall Plan to help rebuild Europe. The Truman Doctrine, which aimed to contain Soviet expansion, solidified a US policy of not tolerating communist ideology.
-The Soviet Union's continued aggression in Europe exacerbated the tension between the two superpowers. Soviet leader Joseph Stalin disregarded agreements made with his Western Allies during the war and continued with the occupation of Eastern Europe with force. This caused mistrust between America and the Soviet Union. In addition, the Iron Curtain split Europe in two, and the arms race between the two powers was in full swing.
-The Soviet blockade of Berlin, which led to the Berlin Airlift, was a crucial event that marked the start of the Cold War. The United States and its western allies were providing West Berlin with crucial supplies such as food and fuel, and the Soviet Union was trying to isolate the city. The United States took the initiative to airlift supplies to Berlin, and the mission was a success. This event highlighted the two superpowers' differences and maneuvering in attempts to gain an edge.
-In conclusion, the Cold War was a global conflict that lasted nearly five decades, and its origins are multifaceted. The communist ideology of the Soviet Union, coupled with the United States' disapproval of its spread, as well as Soviet aggression in Eastern Europe, were significant factors. The mistrust and tension between the two superpowers lasted for years, and events such as the Berlin blockade and the arms race heightened tensions. The Cold War destabilized the world and shaped international relations for decades after it ended, and it was the political and military rivalry between the United States and the Soviet Union that defined it. While it may be difficult to determine the exact moment the Cold War began, historians agree that these early events set the stage for the decades to come.</t>
+The invention of the electric car dates back to the early 19th century, almost 200 years ago. The first electric vehicle was developed by Thomas Davenport, an American inventor, in 1835. Davenport's invention was a small locomotive that ran on a circular track. The locomotive was powered by a battery, which was charged by a series of magnets and copper wire coils.
+The invention of the electric car was a significant milestone in the history of transportation. It marked the beginning of a new era in which vehicles could be powered by electricity instead of fossil fuels. However, the development of the electric car was slow and faced many challenges.
+One of the main challenges faced by the electric car was the limited range of the battery. In the early days of electric cars, the batteries could only power the vehicles for short distances. This limited the practicality of the electric car, as it could not be used for long journeys.
+Another challenge faced by the electric car was the lack of infrastructure to support it. Unlike gasoline cars, which could be refueled at gas stations, electric cars required charging stations. However, there were very few charging stations available, making it difficult for electric car owners to recharge their vehicles.
+Despite these challenges, the electric car continued to evolve. In the late 19th century, the electric car became popular among wealthy individuals, who used them for short trips around the city. Electric taxis were also introduced in several cities, including New York and London.
+The popularity of the electric car declined in the early 20th century, as gasoline cars became more affordable and the infrastructure to support them improved. However, the electric car continued to be developed, and in the 1960s, several companies introduced electric cars for commercial use.
+In the 1990s, the electric car experienced a resurgence in popularity, as concerns about air pollution and climate change increased. Several companies, including General Motors and Toyota, introduced electric cars for consumers. However, these early electric cars were still limited by the range of the battery and the lack of charging infrastructure.
+In recent years, the electric car has undergone a revolution. Advances in battery technology have increased the range of electric cars, making them practical for long journeys. The development of charging infrastructure has also made it easier for electric car owners to recharge their vehicles.
+Today, electric cars are becoming increasingly popular. Several countries, including Norway and the Netherlands, have set targets to phase out gasoline cars and replace them with electric cars. Electric cars are also becoming more affordable, as the cost of batteries continues to decline.
+The invention of the electric car almost 200 years ago was a significant milestone in the history of transportation. Although the electric car faced many challenges over the years, it has continued to evolve and improve. Today, the electric car is becoming a viable alternative to gasoline cars, offering a cleaner and more sustainable form of transportation.
+In conclusion, the invention of the electric car almost 200 years ago marked the beginning of a new era in transportation. Although the electric car faced many challenges over the years, it has continued to evolve and improve. Today, the electric car is becoming an increasingly popular alternative to gasoline cars, offering a cleaner and more sustainable form of transportation. As we continue to face the challenges of climate change and air pollution, the electric car will play an important role in creating a more sustainable future.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Cold War E01: Why did the Cold War start?</t>
+          <t>The First Electric Car Was Invented Almost 200 Years Ago</t>
         </is>
       </c>
     </row>
